--- a/results/tb_results_effects_outros_outcomes.xlsx
+++ b/results/tb_results_effects_outros_outcomes.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J32"/>
+  <dimension ref="A1:K32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -408,6 +408,11 @@
           <t>(9)</t>
         </is>
       </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>(10)</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="B2" t="inlineStr">
@@ -417,40 +422,45 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
+          <t>in_internet</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
           <t>in_agua_rede_publica</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>in_agua_rede_publica</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>in_biblioteca</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>in_biblioteca</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="H2" t="inlineStr">
         <is>
           <t>in_quadra_esportes</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="I2" t="inlineStr">
         <is>
           <t>in_quadra_esportes</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr">
+      <c r="J2" t="inlineStr">
         <is>
           <t>in_computador</t>
         </is>
       </c>
-      <c r="J2" t="inlineStr">
+      <c r="K2" t="inlineStr">
         <is>
           <t>in_computador</t>
         </is>
@@ -464,45 +474,50 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>0.00822</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
           <t>0.05186*</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="D3" t="inlineStr">
         <is>
           <t>0.01336</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>0.02152</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>0.00372</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>-0.05550**</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="H3" t="inlineStr">
         <is>
           <t>-0.01024</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
+      <c r="I3" t="inlineStr">
         <is>
           <t>0.00066</t>
         </is>
       </c>
-      <c r="I3" t="inlineStr">
+      <c r="J3" t="inlineStr">
         <is>
           <t>-0.01846</t>
         </is>
       </c>
-      <c r="J3" t="inlineStr">
+      <c r="K3" t="inlineStr">
         <is>
           <t>0.00660</t>
         </is>
@@ -511,45 +526,50 @@
     <row r="4">
       <c r="B4" t="inlineStr">
         <is>
+          <t>(0.02546)</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
           <t>(0.02756)</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="D4" t="inlineStr">
         <is>
           <t>(0.01368)</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>(0.01392)</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>(0.02392)</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="G4" t="inlineStr">
         <is>
           <t>(0.02613)</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
+      <c r="H4" t="inlineStr">
         <is>
           <t>(0.01888)</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
+      <c r="I4" t="inlineStr">
         <is>
           <t>(0.02054)</t>
         </is>
       </c>
-      <c r="I4" t="inlineStr">
+      <c r="J4" t="inlineStr">
         <is>
           <t>(0.01711)</t>
         </is>
       </c>
-      <c r="J4" t="inlineStr">
+      <c r="K4" t="inlineStr">
         <is>
           <t>(0.01928)</t>
         </is>
@@ -563,45 +583,50 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>6789</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
           <t>6767</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="D5" t="inlineStr">
         <is>
           <t>6789</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>6767</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>6785</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="G5" t="inlineStr">
         <is>
           <t>6763</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr">
+      <c r="H5" t="inlineStr">
         <is>
           <t>6789</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
+      <c r="I5" t="inlineStr">
         <is>
           <t>6767</t>
         </is>
       </c>
-      <c r="I5" t="inlineStr">
+      <c r="J5" t="inlineStr">
         <is>
           <t>6789</t>
         </is>
       </c>
-      <c r="J5" t="inlineStr">
+      <c r="K5" t="inlineStr">
         <is>
           <t>6767</t>
         </is>
@@ -658,6 +683,11 @@
           <t>Yes</t>
         </is>
       </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -710,6 +740,11 @@
           <t>Yes</t>
         </is>
       </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -719,45 +754,50 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
           <t>No</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
       <c r="E8" t="inlineStr">
         <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
           <t>No</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
       <c r="G8" t="inlineStr">
         <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
           <t>No</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
       <c r="I8" t="inlineStr">
         <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
           <t>No</t>
         </is>
       </c>
-      <c r="J8" t="inlineStr">
+      <c r="K8" t="inlineStr">
         <is>
           <t>Yes</t>
         </is>
@@ -776,40 +816,45 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
+          <t>in_internet</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
           <t>in_agua_rede_publica</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>in_agua_rede_publica</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="F10" t="inlineStr">
         <is>
           <t>in_biblioteca</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="G10" t="inlineStr">
         <is>
           <t>in_biblioteca</t>
         </is>
       </c>
-      <c r="G10" t="inlineStr">
+      <c r="H10" t="inlineStr">
         <is>
           <t>in_quadra_esportes</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
+      <c r="I10" t="inlineStr">
         <is>
           <t>in_quadra_esportes</t>
         </is>
       </c>
-      <c r="I10" t="inlineStr">
+      <c r="J10" t="inlineStr">
         <is>
           <t>in_computador</t>
         </is>
       </c>
-      <c r="J10" t="inlineStr">
+      <c r="K10" t="inlineStr">
         <is>
           <t>in_computador</t>
         </is>
@@ -823,45 +868,50 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
+          <t xml:space="preserve"> 0.00555</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
           <t>0.03289</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="D11" t="inlineStr">
         <is>
           <t>0.00605</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
+      <c r="E11" t="inlineStr">
         <is>
           <t>0.01145</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
+      <c r="F11" t="inlineStr">
         <is>
           <t xml:space="preserve"> 0.00131</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="G11" t="inlineStr">
         <is>
           <t>-0.03398</t>
         </is>
       </c>
-      <c r="G11" t="inlineStr">
+      <c r="H11" t="inlineStr">
         <is>
           <t>-0.00651</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr">
+      <c r="I11" t="inlineStr">
         <is>
           <t xml:space="preserve"> 0.00052</t>
         </is>
       </c>
-      <c r="I11" t="inlineStr">
+      <c r="J11" t="inlineStr">
         <is>
           <t>-0.02039</t>
         </is>
       </c>
-      <c r="J11" t="inlineStr">
+      <c r="K11" t="inlineStr">
         <is>
           <t>-0.00541</t>
         </is>
@@ -870,45 +920,50 @@
     <row r="12">
       <c r="B12" t="inlineStr">
         <is>
+          <t>(0.02765)</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
           <t>(0.02786)</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="D12" t="inlineStr">
         <is>
           <t>(0.01355)</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
+      <c r="E12" t="inlineStr">
         <is>
           <t>(0.01396)</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
+      <c r="F12" t="inlineStr">
         <is>
           <t>(0.02500)</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
+      <c r="G12" t="inlineStr">
         <is>
           <t>(0.02530)</t>
         </is>
       </c>
-      <c r="G12" t="inlineStr">
+      <c r="H12" t="inlineStr">
         <is>
           <t>(0.02318)</t>
         </is>
       </c>
-      <c r="H12" t="inlineStr">
+      <c r="I12" t="inlineStr">
         <is>
           <t>(0.02436)</t>
         </is>
       </c>
-      <c r="I12" t="inlineStr">
+      <c r="J12" t="inlineStr">
         <is>
           <t>(0.01813)</t>
         </is>
       </c>
-      <c r="J12" t="inlineStr">
+      <c r="K12" t="inlineStr">
         <is>
           <t>(0.01848)</t>
         </is>
@@ -922,45 +977,50 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
+          <t xml:space="preserve"> 0.01519</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
           <t>0.05348*</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
+      <c r="D13" t="inlineStr">
         <is>
           <t>0.01444</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
+      <c r="E13" t="inlineStr">
         <is>
           <t>0.02211</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
+      <c r="F13" t="inlineStr">
         <is>
           <t>-0.01906</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
+      <c r="G13" t="inlineStr">
         <is>
           <t>-0.06797**</t>
         </is>
       </c>
-      <c r="G13" t="inlineStr">
+      <c r="H13" t="inlineStr">
         <is>
           <t>-0.01844</t>
         </is>
       </c>
-      <c r="H13" t="inlineStr">
+      <c r="I13" t="inlineStr">
         <is>
           <t>-0.00883</t>
         </is>
       </c>
-      <c r="I13" t="inlineStr">
+      <c r="J13" t="inlineStr">
         <is>
           <t xml:space="preserve"> 0.00445</t>
         </is>
       </c>
-      <c r="J13" t="inlineStr">
+      <c r="K13" t="inlineStr">
         <is>
           <t xml:space="preserve"> 0.02424</t>
         </is>
@@ -969,45 +1029,50 @@
     <row r="14">
       <c r="B14" t="inlineStr">
         <is>
+          <t>(0.03048)</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
           <t>(0.03164)</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
+      <c r="D14" t="inlineStr">
         <is>
           <t>(0.01526)</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr">
+      <c r="E14" t="inlineStr">
         <is>
           <t>(0.01497)</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
+      <c r="F14" t="inlineStr">
         <is>
           <t>(0.02694)</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
+      <c r="G14" t="inlineStr">
         <is>
           <t>(0.02821)</t>
         </is>
       </c>
-      <c r="G14" t="inlineStr">
+      <c r="H14" t="inlineStr">
         <is>
           <t>(0.02036)</t>
         </is>
       </c>
-      <c r="H14" t="inlineStr">
+      <c r="I14" t="inlineStr">
         <is>
           <t>(0.02165)</t>
         </is>
       </c>
-      <c r="I14" t="inlineStr">
+      <c r="J14" t="inlineStr">
         <is>
           <t>(0.02022)</t>
         </is>
       </c>
-      <c r="J14" t="inlineStr">
+      <c r="K14" t="inlineStr">
         <is>
           <t>(0.02148)</t>
         </is>
@@ -1021,45 +1086,50 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
+          <t>-0.01631</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
           <t>0.03376</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
+      <c r="D15" t="inlineStr">
         <is>
           <t>0.02065</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr">
+      <c r="E15" t="inlineStr">
         <is>
           <t>0.03061*</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr">
+      <c r="F15" t="inlineStr">
         <is>
           <t xml:space="preserve"> 0.01112</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr">
+      <c r="G15" t="inlineStr">
         <is>
           <t>-0.05213*</t>
         </is>
       </c>
-      <c r="G15" t="inlineStr">
+      <c r="H15" t="inlineStr">
         <is>
           <t>-0.00600</t>
         </is>
       </c>
-      <c r="H15" t="inlineStr">
+      <c r="I15" t="inlineStr">
         <is>
           <t xml:space="preserve"> 0.00616</t>
         </is>
       </c>
-      <c r="I15" t="inlineStr">
+      <c r="J15" t="inlineStr">
         <is>
           <t>-0.00835</t>
         </is>
       </c>
-      <c r="J15" t="inlineStr">
+      <c r="K15" t="inlineStr">
         <is>
           <t xml:space="preserve"> 0.01614</t>
         </is>
@@ -1068,45 +1138,50 @@
     <row r="16">
       <c r="B16" t="inlineStr">
         <is>
+          <t>(0.03102)</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
           <t>(0.03332)</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr">
+      <c r="D16" t="inlineStr">
         <is>
           <t>(0.01593)</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr">
+      <c r="E16" t="inlineStr">
         <is>
           <t>(0.01666)</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr">
+      <c r="F16" t="inlineStr">
         <is>
           <t>(0.02779)</t>
         </is>
       </c>
-      <c r="F16" t="inlineStr">
+      <c r="G16" t="inlineStr">
         <is>
           <t>(0.03107)</t>
         </is>
       </c>
-      <c r="G16" t="inlineStr">
+      <c r="H16" t="inlineStr">
         <is>
           <t>(0.02150)</t>
         </is>
       </c>
-      <c r="H16" t="inlineStr">
+      <c r="I16" t="inlineStr">
         <is>
           <t>(0.02281)</t>
         </is>
       </c>
-      <c r="I16" t="inlineStr">
+      <c r="J16" t="inlineStr">
         <is>
           <t>(0.01851)</t>
         </is>
       </c>
-      <c r="J16" t="inlineStr">
+      <c r="K16" t="inlineStr">
         <is>
           <t>(0.02093)</t>
         </is>
@@ -1120,45 +1195,50 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
+          <t>-0.00381</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
           <t>0.05951</t>
         </is>
       </c>
-      <c r="C17" t="inlineStr">
+      <c r="D17" t="inlineStr">
         <is>
           <t>0.00303</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr">
+      <c r="E17" t="inlineStr">
         <is>
           <t>0.01536</t>
         </is>
       </c>
-      <c r="E17" t="inlineStr">
+      <c r="F17" t="inlineStr">
         <is>
           <t xml:space="preserve"> 0.01294</t>
         </is>
       </c>
-      <c r="F17" t="inlineStr">
+      <c r="G17" t="inlineStr">
         <is>
           <t>-0.06325*</t>
         </is>
       </c>
-      <c r="G17" t="inlineStr">
+      <c r="H17" t="inlineStr">
         <is>
           <t>-0.01284</t>
         </is>
       </c>
-      <c r="H17" t="inlineStr">
+      <c r="I17" t="inlineStr">
         <is>
           <t xml:space="preserve"> 0.00174</t>
         </is>
       </c>
-      <c r="I17" t="inlineStr">
+      <c r="J17" t="inlineStr">
         <is>
           <t>-0.03128</t>
         </is>
       </c>
-      <c r="J17" t="inlineStr">
+      <c r="K17" t="inlineStr">
         <is>
           <t>-0.00291</t>
         </is>
@@ -1167,45 +1247,50 @@
     <row r="18">
       <c r="B18" t="inlineStr">
         <is>
+          <t>(0.03179)</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
           <t>(0.03648)</t>
         </is>
       </c>
-      <c r="C18" t="inlineStr">
+      <c r="D18" t="inlineStr">
         <is>
           <t>(0.01697)</t>
         </is>
       </c>
-      <c r="D18" t="inlineStr">
+      <c r="E18" t="inlineStr">
         <is>
           <t>(0.01803)</t>
         </is>
       </c>
-      <c r="E18" t="inlineStr">
+      <c r="F18" t="inlineStr">
         <is>
           <t>(0.02867)</t>
         </is>
       </c>
-      <c r="F18" t="inlineStr">
+      <c r="G18" t="inlineStr">
         <is>
           <t>(0.03389)</t>
         </is>
       </c>
-      <c r="G18" t="inlineStr">
+      <c r="H18" t="inlineStr">
         <is>
           <t>(0.02165)</t>
         </is>
       </c>
-      <c r="H18" t="inlineStr">
+      <c r="I18" t="inlineStr">
         <is>
           <t>(0.02372)</t>
         </is>
       </c>
-      <c r="I18" t="inlineStr">
+      <c r="J18" t="inlineStr">
         <is>
           <t>(0.01947)</t>
         </is>
       </c>
-      <c r="J18" t="inlineStr">
+      <c r="K18" t="inlineStr">
         <is>
           <t>(0.02387)</t>
         </is>
@@ -1219,45 +1304,50 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
+          <t xml:space="preserve"> 0.04160</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
           <t>0.11728***</t>
         </is>
       </c>
-      <c r="C19" t="inlineStr">
+      <c r="D19" t="inlineStr">
         <is>
           <t>0.02292</t>
         </is>
       </c>
-      <c r="D19" t="inlineStr">
+      <c r="E19" t="inlineStr">
         <is>
           <t>0.03776*</t>
         </is>
       </c>
-      <c r="E19" t="inlineStr">
+      <c r="F19" t="inlineStr">
         <is>
           <t xml:space="preserve"> 0.01301</t>
         </is>
       </c>
-      <c r="F19" t="inlineStr">
+      <c r="G19" t="inlineStr">
         <is>
           <t>-0.07767**</t>
         </is>
       </c>
-      <c r="G19" t="inlineStr">
+      <c r="H19" t="inlineStr">
         <is>
           <t>-0.00734</t>
         </is>
       </c>
-      <c r="H19" t="inlineStr">
+      <c r="I19" t="inlineStr">
         <is>
           <t xml:space="preserve"> 0.01003</t>
         </is>
       </c>
-      <c r="I19" t="inlineStr">
+      <c r="J19" t="inlineStr">
         <is>
           <t>-0.03787*</t>
         </is>
       </c>
-      <c r="J19" t="inlineStr">
+      <c r="K19" t="inlineStr">
         <is>
           <t>-0.00498</t>
         </is>
@@ -1266,45 +1356,50 @@
     <row r="20">
       <c r="B20" t="inlineStr">
         <is>
+          <t>(0.03241)</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
           <t>(0.03889)</t>
         </is>
       </c>
-      <c r="C20" t="inlineStr">
+      <c r="D20" t="inlineStr">
         <is>
           <t>(0.01862)</t>
         </is>
       </c>
-      <c r="D20" t="inlineStr">
+      <c r="E20" t="inlineStr">
         <is>
           <t>(0.02103)</t>
         </is>
       </c>
-      <c r="E20" t="inlineStr">
+      <c r="F20" t="inlineStr">
         <is>
           <t>(0.02962)</t>
         </is>
       </c>
-      <c r="F20" t="inlineStr">
+      <c r="G20" t="inlineStr">
         <is>
           <t>(0.03695)</t>
         </is>
       </c>
-      <c r="G20" t="inlineStr">
+      <c r="H20" t="inlineStr">
         <is>
           <t>(0.02215)</t>
         </is>
       </c>
-      <c r="H20" t="inlineStr">
+      <c r="I20" t="inlineStr">
         <is>
           <t>(0.02525)</t>
         </is>
       </c>
-      <c r="I20" t="inlineStr">
+      <c r="J20" t="inlineStr">
         <is>
           <t>(0.01945)</t>
         </is>
       </c>
-      <c r="J20" t="inlineStr">
+      <c r="K20" t="inlineStr">
         <is>
           <t>(0.02615)</t>
         </is>
@@ -1346,45 +1441,50 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
+          <t>6789</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
           <t>6767</t>
         </is>
       </c>
-      <c r="C29" t="inlineStr">
+      <c r="D29" t="inlineStr">
         <is>
           <t>6789</t>
         </is>
       </c>
-      <c r="D29" t="inlineStr">
+      <c r="E29" t="inlineStr">
         <is>
           <t>6767</t>
         </is>
       </c>
-      <c r="E29" t="inlineStr">
+      <c r="F29" t="inlineStr">
         <is>
           <t>6785</t>
         </is>
       </c>
-      <c r="F29" t="inlineStr">
+      <c r="G29" t="inlineStr">
         <is>
           <t>6763</t>
         </is>
       </c>
-      <c r="G29" t="inlineStr">
+      <c r="H29" t="inlineStr">
         <is>
           <t>6789</t>
         </is>
       </c>
-      <c r="H29" t="inlineStr">
+      <c r="I29" t="inlineStr">
         <is>
           <t>6767</t>
         </is>
       </c>
-      <c r="I29" t="inlineStr">
+      <c r="J29" t="inlineStr">
         <is>
           <t>6789</t>
         </is>
       </c>
-      <c r="J29" t="inlineStr">
+      <c r="K29" t="inlineStr">
         <is>
           <t>6767</t>
         </is>
@@ -1441,6 +1541,11 @@
           <t>Yes</t>
         </is>
       </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -1493,6 +1598,11 @@
           <t>Yes</t>
         </is>
       </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -1502,45 +1612,50 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
           <t>No</t>
         </is>
       </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
       <c r="E32" t="inlineStr">
         <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
           <t>No</t>
         </is>
       </c>
-      <c r="F32" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
       <c r="G32" t="inlineStr">
         <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
           <t>No</t>
         </is>
       </c>
-      <c r="H32" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
       <c r="I32" t="inlineStr">
         <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
           <t>No</t>
         </is>
       </c>
-      <c r="J32" t="inlineStr">
+      <c r="K32" t="inlineStr">
         <is>
           <t>Yes</t>
         </is>
